--- a/data/demo/Data info(1).xlsx
+++ b/data/demo/Data info(1).xlsx
@@ -281,13 +281,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,12 +320,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,22 +362,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -369,9 +377,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,9 +415,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,7 +432,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -415,60 +454,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,187 +470,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,35 +679,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,6 +699,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,15 +753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -777,155 +767,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -940,7 +939,8 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1332,8 +1332,8 @@
       <c r="G2">
         <v>545.69</v>
       </c>
-      <c r="H2">
-        <v>623.409</v>
+      <c r="H2" s="9">
+        <v>545.69</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1355,8 +1355,8 @@
       <c r="G3">
         <v>832.69</v>
       </c>
-      <c r="H3">
-        <v>867.558</v>
+      <c r="H3" s="9">
+        <v>832.689</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1378,8 +1378,8 @@
       <c r="G4">
         <v>832.78</v>
       </c>
-      <c r="H4">
-        <v>836.917</v>
+      <c r="H4" s="9">
+        <v>832.781</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1401,8 +1401,8 @@
       <c r="G5">
         <v>2082.28</v>
       </c>
-      <c r="H5">
-        <v>2147.268</v>
+      <c r="H5" s="9">
+        <v>2082.276</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1424,8 +1424,8 @@
       <c r="G6">
         <v>1827.41</v>
       </c>
-      <c r="H6">
-        <v>1926.77</v>
+      <c r="H6" s="9">
+        <v>1827.415</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1447,8 +1447,8 @@
       <c r="G7">
         <v>1786.95</v>
       </c>
-      <c r="H7">
-        <v>1813.365</v>
+      <c r="H7" s="9">
+        <v>1786.958</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1470,8 +1470,8 @@
       <c r="G8">
         <v>5424.57</v>
       </c>
-      <c r="H8">
-        <v>5605.78</v>
+      <c r="H8" s="9">
+        <v>5424.568</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1493,8 +1493,8 @@
       <c r="G9">
         <v>3737.38</v>
       </c>
-      <c r="H9">
-        <v>3838.438</v>
+      <c r="H9" s="9">
+        <v>3737.389</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1517,7 +1517,7 @@
         <v>3802.88</v>
       </c>
       <c r="H10">
-        <v>3916.19</v>
+        <v>3802.999</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1540,7 +1540,7 @@
         <v>2868.39</v>
       </c>
       <c r="H11">
-        <v>3289.107</v>
+        <v>2969.839</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1563,7 +1563,7 @@
         <v>2983.66</v>
       </c>
       <c r="H12">
-        <v>3214.76</v>
+        <v>3103.361</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1586,7 +1586,7 @@
         <v>3090.38</v>
       </c>
       <c r="H13">
-        <v>3210.437</v>
+        <v>3183.242</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1609,7 +1609,7 @@
         <v>8293.42</v>
       </c>
       <c r="H14">
-        <v>8444.689</v>
+        <v>8337.982</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1632,7 +1632,7 @@
         <v>7273.03</v>
       </c>
       <c r="H15">
-        <v>7451.694</v>
+        <v>7322.572</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1654,8 +1654,8 @@
       <c r="G16">
         <v>8626.13</v>
       </c>
-      <c r="H16">
-        <v>8717.4</v>
+      <c r="H16" s="9">
+        <v>8626.125</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1678,7 +1678,7 @@
         <v>5306.5</v>
       </c>
       <c r="H17">
-        <v>5599.989</v>
+        <v>5338.007</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1701,7 +1701,7 @@
         <v>6141.07</v>
       </c>
       <c r="H18">
-        <v>6840.006</v>
+        <v>6226.537</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1723,8 +1723,8 @@
       <c r="G19">
         <v>5804.19</v>
       </c>
-      <c r="H19">
-        <v>6136.43</v>
+      <c r="H19" s="9">
+        <v>5803.679</v>
       </c>
     </row>
   </sheetData>

--- a/data/demo/Data info(1).xlsx
+++ b/data/demo/Data info(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11720"/>
+    <workbookView windowWidth="15440" windowHeight="11720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lalla" sheetId="1" r:id="rId1"/>
@@ -281,11 +281,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -317,33 +317,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,8 +332,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,11 +348,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,15 +403,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,50 +454,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -476,187 +476,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,11 +679,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,36 +742,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -749,6 +749,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,160 +776,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -939,7 +939,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1274,8 +1274,8 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1516,8 +1516,8 @@
       <c r="G10">
         <v>3802.88</v>
       </c>
-      <c r="H10">
-        <v>3802.999</v>
+      <c r="H10" s="9">
+        <v>3802.883</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1563,7 +1563,7 @@
         <v>2983.66</v>
       </c>
       <c r="H12">
-        <v>3103.361</v>
+        <v>3095.22</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1586,7 +1586,7 @@
         <v>3090.38</v>
       </c>
       <c r="H13">
-        <v>3183.242</v>
+        <v>3174.983</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1609,7 +1609,7 @@
         <v>8293.42</v>
       </c>
       <c r="H14">
-        <v>8337.982</v>
+        <v>8296.775</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1631,8 +1631,8 @@
       <c r="G15">
         <v>7273.03</v>
       </c>
-      <c r="H15">
-        <v>7322.572</v>
+      <c r="H15" s="9">
+        <v>7260.592</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1677,8 +1677,8 @@
       <c r="G17">
         <v>5306.5</v>
       </c>
-      <c r="H17">
-        <v>5338.007</v>
+      <c r="H17" s="9">
+        <v>5270.471</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1701,7 +1701,7 @@
         <v>6141.07</v>
       </c>
       <c r="H18">
-        <v>6226.537</v>
+        <v>6150.679</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1738,10 +1738,10 @@
   <sheetPr/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O23" sqref="O23"/>
+      <selection pane="topRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1805,7 +1805,7 @@
         <v>713.18</v>
       </c>
       <c r="I2">
-        <v>714.398</v>
+        <v>712.492</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1831,7 +1831,7 @@
         <v>713.59</v>
       </c>
       <c r="I3">
-        <v>714.398</v>
+        <v>712.492</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1857,7 +1857,7 @@
         <v>952.17</v>
       </c>
       <c r="I4">
-        <v>953.112</v>
+        <v>952.172</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1883,7 +1883,7 @@
         <v>1955.82</v>
       </c>
       <c r="I5">
-        <v>1955.741</v>
+        <v>1955.727</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1909,7 +1909,7 @@
         <v>1985.03</v>
       </c>
       <c r="I6">
-        <v>1984.949</v>
+        <v>1982.749</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1935,7 +1935,7 @@
         <v>1553.88</v>
       </c>
       <c r="I7">
-        <v>1560.506</v>
+        <v>1554.136</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1961,7 +1961,7 @@
         <v>1522.68</v>
       </c>
       <c r="I8">
-        <v>1530.46</v>
+        <v>1522.715</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2159,7 +2159,7 @@
         <v>5794.11</v>
       </c>
       <c r="I16">
-        <v>5823.37</v>
+        <v>5814.08</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2344,7 +2344,7 @@
         <v>1261.77</v>
       </c>
       <c r="I27" s="8">
-        <v>1267.6</v>
+        <v>1261.917</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2370,7 +2370,7 @@
         <v>2572.84</v>
       </c>
       <c r="I28" s="8">
-        <v>2616.338</v>
+        <v>2577.759</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2396,7 +2396,7 @@
         <v>4466.1</v>
       </c>
       <c r="I29" s="8">
-        <v>4498.987</v>
+        <v>4478.691</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2422,7 +2422,7 @@
         <v>5813.87</v>
       </c>
       <c r="I30" s="8">
-        <v>5913.968</v>
+        <v>5828.293</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2448,7 +2448,7 @@
         <v>7157.06</v>
       </c>
       <c r="I31" s="8">
-        <v>7251.789</v>
+        <v>7184.062</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2474,7 +2474,7 @@
         <v>8658.68</v>
       </c>
       <c r="I32" s="8">
-        <v>8889.958</v>
+        <v>8888.12</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2500,7 +2500,7 @@
         <v>1727.25</v>
       </c>
       <c r="I33" s="8">
-        <v>1749.011</v>
+        <v>1725.609</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2526,7 +2526,7 @@
         <v>4023.21</v>
       </c>
       <c r="I34" s="8">
-        <v>4051.423</v>
+        <v>4026.539</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2552,7 +2552,7 @@
         <v>5937.19</v>
       </c>
       <c r="I35" s="8">
-        <v>6005.192</v>
+        <v>5970.177</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2578,7 +2578,7 @@
         <v>9166.57</v>
       </c>
       <c r="I36" s="8">
-        <v>9488.154</v>
+        <v>9375.874</v>
       </c>
     </row>
   </sheetData>

--- a/data/demo/Data info(1).xlsx
+++ b/data/demo/Data info(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15440" windowHeight="11720" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lalla" sheetId="1" r:id="rId1"/>
@@ -1739,9 +1739,9 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I17" sqref="I17"/>
+      <selection pane="topRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2013,7 +2013,7 @@
         <v>13136.24</v>
       </c>
       <c r="I10">
-        <v>13268.766</v>
+        <v>13246.386</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2039,7 +2039,7 @@
         <v>12096.9</v>
       </c>
       <c r="I11">
-        <v>12332.264</v>
+        <v>12253.119</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -2344,7 +2344,7 @@
         <v>1261.77</v>
       </c>
       <c r="I27" s="8">
-        <v>1261.917</v>
+        <v>1261.58</v>
       </c>
     </row>
     <row r="28" spans="1:9">

--- a/data/demo/Data info(1).xlsx
+++ b/data/demo/Data info(1).xlsx
@@ -282,10 +282,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -317,6 +317,112 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -334,38 +440,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -373,51 +447,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,36 +460,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -476,25 +476,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,126 +650,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -633,30 +657,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,11 +694,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,6 +720,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,6 +759,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -752,175 +776,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1741,7 +1741,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K11" sqref="K11"/>
+      <selection pane="topRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1883,7 +1883,7 @@
         <v>1955.82</v>
       </c>
       <c r="I5">
-        <v>1955.727</v>
+        <v>1955.487</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2159,7 +2159,7 @@
         <v>5794.11</v>
       </c>
       <c r="I16">
-        <v>5814.08</v>
+        <v>5794.08</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2344,7 +2344,7 @@
         <v>1261.77</v>
       </c>
       <c r="I27" s="8">
-        <v>1261.58</v>
+        <v>1261.551</v>
       </c>
     </row>
     <row r="28" spans="1:9">

--- a/data/demo/Data info(1).xlsx
+++ b/data/demo/Data info(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11720" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11720"/>
   </bookViews>
   <sheets>
     <sheet name="Lalla" sheetId="1" r:id="rId1"/>
@@ -283,9 +283,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -317,10 +317,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,10 +349,41 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,22 +402,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -379,7 +410,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,7 +418,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,7 +439,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -423,39 +453,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,181 +476,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,6 +679,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -694,17 +709,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,8 +747,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -747,180 +776,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1274,8 +1274,8 @@
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1586,7 +1586,7 @@
         <v>3090.38</v>
       </c>
       <c r="H13">
-        <v>3174.983</v>
+        <v>3171.75</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1738,10 +1738,10 @@
   <sheetPr/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I17" sqref="I17"/>
+      <selection pane="topRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
